--- a/畢業論文/data.xlsx
+++ b/畢業論文/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0926\Desktop\碩班檔案\碩二上\CTF\畢業論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C212D-F31E-4F5F-B3CB-CA36E4A77CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6214F30-8F19-4127-98FF-990AF9F26F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3945" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,6 +1308,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1461,6 +1462,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1763,10 +1765,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="dbl">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2184,9 +2187,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.60301694274155981"/>
+          <c:x val="0.49719680873224192"/>
           <c:y val="0.22287322141742025"/>
-          <c:w val="0.35011721074408764"/>
+          <c:w val="0.45593738282714663"/>
           <c:h val="0.32579588551601729"/>
         </c:manualLayout>
       </c:layout>
@@ -3719,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U13" workbookViewId="0">
-      <selection activeCell="AZ33" sqref="AZ33"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/畢業論文/data.xlsx
+++ b/畢業論文/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0926\Desktop\碩班檔案\碩二上\CTF\畢業論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6214F30-8F19-4127-98FF-990AF9F26F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB79B4-063B-40E7-B0A4-C0F947F9CCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3945" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3722,7 +3722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>

--- a/畢業論文/data.xlsx
+++ b/畢業論文/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0926\Desktop\碩班檔案\碩二上\CTF\畢業論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB79B4-063B-40E7-B0A4-C0F947F9CCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6647F6-6099-4464-8797-DF4E03602AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3945" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,26 +1228,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:rPr lang="en-US" sz="2000">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>NRMSPM</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:endParaRPr lang="zh-TW" sz="2000">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
@@ -1267,16 +1267,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-TW"/>
@@ -1308,7 +1308,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="lgDash"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1462,7 +1462,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="dashDot"/>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1614,8 +1614,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1765,11 +1766,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="dbl">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1926,8 +1927,13 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1953,20 +1959,27 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>T</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="-25000">
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>60</a:t>
+                  <a:t>60 </a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600" baseline="-25000">
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" sz="1400" baseline="0">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
@@ -1977,8 +1990,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.51244810307802435"/>
-              <c:y val="0.825857999139891"/>
+              <c:x val="0.51244808553342602"/>
+              <c:y val="0.78091293427031294"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2017,7 +2030,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -2028,9 +2046,6 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2061,8 +2076,14 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2075,7 +2096,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2088,13 +2109,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1600">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>dB</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
+                <a:endParaRPr lang="zh-TW" sz="1400">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
@@ -2114,7 +2135,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2173,7 +2194,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="sq" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -2183,14 +2204,106 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.49719680873224192"/>
-          <c:y val="0.22287322141742025"/>
-          <c:w val="0.45593738282714663"/>
-          <c:h val="0.32579588551601729"/>
+          <c:x val="0.50061621892851627"/>
+          <c:y val="0.20838630655039087"/>
+          <c:w val="0.46063493901497604"/>
+          <c:h val="0.33496540939365999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2206,7 +2319,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3419,15 +3532,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3722,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
